--- a/3.StorageAccounts/Azure Storage Account.xlsx
+++ b/3.StorageAccounts/Azure Storage Account.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Storage Account" sheetId="3" r:id="rId1"/>
+    <sheet name="Core Storage Services" sheetId="5" r:id="rId2"/>
+    <sheet name="Replication" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
   <si>
     <t>Storage Account</t>
   </si>
@@ -108,13 +110,182 @@
   </si>
   <si>
     <t>Replication</t>
+  </si>
+  <si>
+    <t>General Purpose V2</t>
+  </si>
+  <si>
+    <t>General Purpose V1</t>
+  </si>
+  <si>
+    <t>LRS</t>
+  </si>
+  <si>
+    <t>ZRS</t>
+  </si>
+  <si>
+    <t>GRS</t>
+  </si>
+  <si>
+    <t>RA-GRS</t>
+  </si>
+  <si>
+    <t>GZRS</t>
+  </si>
+  <si>
+    <t>RA-GZRS</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Premium</t>
+  </si>
+  <si>
+    <t>Hot</t>
+  </si>
+  <si>
+    <t>Cold</t>
+  </si>
+  <si>
+    <t>Archive</t>
+  </si>
+  <si>
+    <t>No: Of Copies</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Primary Region</t>
+  </si>
+  <si>
+    <t>Copy Mode</t>
+  </si>
+  <si>
+    <t>11 9's</t>
+  </si>
+  <si>
+    <t>12 9's</t>
+  </si>
+  <si>
+    <t>Synchronous copies Primary Azure Availability Zones
+Asynchronous in Secondary and LRS
+Manual Failover needed</t>
+  </si>
+  <si>
+    <t>Synchronous in Primary
+Asynchronous in Secondary and LRS 
+Manual Failover needed</t>
+  </si>
+  <si>
+    <t>16 9's</t>
+  </si>
+  <si>
+    <t>Durability</t>
+  </si>
+  <si>
+    <t>Secondary Region</t>
+  </si>
+  <si>
+    <t>Data Availability</t>
+  </si>
+  <si>
+    <t>HA</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>High Availability (Low to High) LRS being Lowest</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Synchronous in Primary copying using Availability Zones
+Asynchronous copy in Secondary with LRS
+Secondary available for Read when Primary goes down
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Azure files don’t support this</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Synchronous in Primary LRS
+Asynchronous copy in Secondary and LRS
+Secondary available for Read when Primary goes down
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Azure files don’t support this</t>
+    </r>
+  </si>
+  <si>
+    <t>Redundancy</t>
+  </si>
+  <si>
+    <t>HA - SLA</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Write</t>
+  </si>
+  <si>
+    <t>Synchronous and in one data center</t>
+  </si>
+  <si>
+    <t>Synchronous and in one region specific availability zones</t>
+  </si>
+  <si>
+    <t>Files</t>
+  </si>
+  <si>
+    <t>Queues</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Object Store for text and binary data. Includes ASDL 2</t>
+  </si>
+  <si>
+    <t>File Shares for cloud or on premises</t>
+  </si>
+  <si>
+    <t>Message store for reliabile messaging between application components</t>
+  </si>
+  <si>
+    <t>NoSQL store for schemaless storage. Part of cosmosdb bow</t>
+  </si>
+  <si>
+    <t>Block level storage volumes for Azure VM's</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,8 +301,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,8 +340,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF00B050"/>
+        </stop>
+      </gradientFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -171,38 +371,372 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,38 +1018,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Q34"/>
+  <dimension ref="B3:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="9.140625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="9.140625" style="1" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="9.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="9.140625" style="1" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="9.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="1" customWidth="1"/>
+    <col min="18" max="18" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -527,14 +1064,15 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C4" s="3"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="26"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -546,14 +1084,18 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -565,16 +1107,15 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="3"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -586,14 +1127,18 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -605,13 +1150,14 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="10"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -623,37 +1169,42 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11" t="s">
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+    </row>
+    <row r="9" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C10" s="3"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="26"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -662,19 +1213,23 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="10" t="s">
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -683,132 +1238,143 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="7" t="s">
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="Q11" s="7"/>
-    </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="9" t="s">
+      <c r="T11" s="5"/>
+    </row>
+    <row r="12" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="3"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="10"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="9" t="s">
+      <c r="L12" s="10"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="9"/>
-      <c r="N12" s="2"/>
       <c r="O12" s="10"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C14" s="3"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="5" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="I14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="7" t="s">
+      <c r="J14" s="2"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Q14" s="7"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="9" t="s">
+      <c r="T14" s="5"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C16" s="3"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="26"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -817,21 +1383,20 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="7" t="s">
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Q17" s="7"/>
-    </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="T17" s="5"/>
+    </row>
+    <row r="18" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="3"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="26"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -840,124 +1405,137 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="9" t="s">
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="10"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
+      <c r="L19" s="10"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="16"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="7" t="s">
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Q20" s="7"/>
-    </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="T20" s="5"/>
+    </row>
+    <row r="21" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="16"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="16"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="14"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="7" t="s">
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q23" s="7"/>
-    </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="T23" s="5"/>
+    </row>
+    <row r="24" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="26"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -966,17 +1544,23 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+    </row>
+    <row r="25" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="26"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -985,135 +1569,155 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C26" s="3"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-    </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="8" t="s">
+      <c r="D26" s="18"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+    </row>
+    <row r="27" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27" s="3"/>
+      <c r="N27" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="O27" s="3"/>
+      <c r="P27" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="26"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="H28" s="5"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="J28" s="4"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
+      <c r="L28" s="4"/>
       <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
+      <c r="N28" s="4"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
+      <c r="P28" s="4"/>
       <c r="Q28" s="3"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="26"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="H29" s="5"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="J29" s="4"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
+      <c r="L29" s="4"/>
       <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
+      <c r="N29" s="4"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
+      <c r="P29" s="4"/>
       <c r="Q29" s="3"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="10"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="F30" s="26"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="H30" s="5"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+      <c r="J30" s="4"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
+      <c r="L30" s="4"/>
       <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
+      <c r="N30" s="4"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
+      <c r="P30" s="4"/>
       <c r="Q30" s="3"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+    </row>
+    <row r="31" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="3"/>
+      <c r="D31" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="23"/>
+      <c r="F31" s="26"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="H31" s="5"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="J31" s="4"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
+      <c r="L31" s="4"/>
       <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
+      <c r="N31" s="4"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
+      <c r="P31" s="4"/>
       <c r="Q31" s="3"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C32" s="3"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="26"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -1125,76 +1729,684 @@
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-    </row>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="26"/>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D34" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="23"/>
+      <c r="F34" s="26"/>
+    </row>
+    <row r="35" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="20"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="27"/>
+    </row>
+    <row r="38" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:D34"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="E9:O9"/>
-    <mergeCell ref="O10:O25"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="B33:C34"/>
-    <mergeCell ref="B30:C31"/>
-    <mergeCell ref="P23:Q24"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="P11:Q12"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="I12:J16"/>
-    <mergeCell ref="L12:M16"/>
-    <mergeCell ref="P14:Q15"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="E26:O26"/>
-    <mergeCell ref="P17:Q18"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="F19:G23"/>
-    <mergeCell ref="I19:J23"/>
-    <mergeCell ref="P20:Q21"/>
+  <mergeCells count="41">
+    <mergeCell ref="D21:E23"/>
+    <mergeCell ref="D25:E29"/>
+    <mergeCell ref="D34:E35"/>
+    <mergeCell ref="F3:F35"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="J27:J31"/>
+    <mergeCell ref="L27:L31"/>
+    <mergeCell ref="N27:N31"/>
+    <mergeCell ref="P27:P31"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="S20:T21"/>
+    <mergeCell ref="D3:E7"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D9:E19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="S23:T24"/>
+    <mergeCell ref="S11:T12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K12:L16"/>
+    <mergeCell ref="N12:O16"/>
+    <mergeCell ref="S14:T15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="S17:T18"/>
+    <mergeCell ref="H19:I23"/>
+    <mergeCell ref="K19:L23"/>
+    <mergeCell ref="G9:R9"/>
+    <mergeCell ref="R10:R25"/>
+    <mergeCell ref="D31:E32"/>
+    <mergeCell ref="G26:R26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:M30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11:M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C3" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="66"/>
+      <c r="E3" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="I3" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="66"/>
+      <c r="K3" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C11" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="58"/>
+      <c r="G11" s="59"/>
+      <c r="I11" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="66"/>
+      <c r="K11" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+    </row>
+    <row r="12" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="66"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="62"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C13" s="66"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="62"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+    </row>
+    <row r="14" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="66"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="62"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C15" s="66"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="62"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="66"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="62"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C17" s="66"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="65"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C19" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="66"/>
+      <c r="E19" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+    </row>
+    <row r="21" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+    </row>
+    <row r="30" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="K3:M9"/>
+    <mergeCell ref="E3:G9"/>
+    <mergeCell ref="E11:G17"/>
+    <mergeCell ref="K11:M17"/>
+    <mergeCell ref="E19:G25"/>
+    <mergeCell ref="I3:J9"/>
+    <mergeCell ref="C3:D9"/>
+    <mergeCell ref="C11:D17"/>
+    <mergeCell ref="I11:J17"/>
+    <mergeCell ref="C19:D25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="9.140625" style="34"/>
+    <col min="6" max="6" width="13.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="34" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="54"/>
+      <c r="M1" s="55"/>
+    </row>
+    <row r="2" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="36">
+        <v>3</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="36">
+        <v>99.9</v>
+      </c>
+      <c r="M3" s="49">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="31"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="49"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="31"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="36">
+        <v>3</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="51"/>
+      <c r="L5" s="36">
+        <v>99.9</v>
+      </c>
+      <c r="M5" s="49">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="31"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="49"/>
+    </row>
+    <row r="7" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="31"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="36">
+        <v>6</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="51"/>
+      <c r="L7" s="36">
+        <v>99.9</v>
+      </c>
+      <c r="M7" s="49">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="31"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="49"/>
+    </row>
+    <row r="9" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="31"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="36">
+        <v>6</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="51"/>
+      <c r="L9" s="36">
+        <v>99.9</v>
+      </c>
+      <c r="M9" s="49">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="31"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="49"/>
+    </row>
+    <row r="11" spans="2:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="B11" s="31"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="36">
+        <v>6</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="51"/>
+      <c r="L11" s="36">
+        <v>99.99</v>
+      </c>
+      <c r="M11" s="49">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="31"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="49"/>
+    </row>
+    <row r="13" spans="2:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="B13" s="32"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40">
+        <v>6</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="52"/>
+      <c r="L13" s="40">
+        <v>99.99</v>
+      </c>
+      <c r="M13" s="50">
+        <v>99.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="K3:K13"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B3:C13"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
